--- a/biology/Zoologie/Crenatula/Crenatula.xlsx
+++ b/biology/Zoologie/Crenatula/Crenatula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Crenatula est un genre de mollusques bivalves de l'ordre des Ostreida et de la famille des Pteriidae, des Isognomonidae ou des Malleidae, selon les classifications.
-Selon la base de données World Register of Marine Species                               (20 octobre 2019)[2], Crenatula picta (Gmelin, 1791) est la seule espèce connue dans son genre. Cependant, d'autres sites comme BioLib                    (20 octobre 2019)[3] donnent d'autres espèces comme valides:
+Selon la base de données World Register of Marine Species                               (20 octobre 2019), Crenatula picta (Gmelin, 1791) est la seule espèce connue dans son genre. Cependant, d'autres sites comme BioLib                    (20 octobre 2019) donnent d'autres espèces comme valides:
 Crenatula avicularis F. Stoliczka, 1871
 Crenatula flammea L. A. Reeve, 1858
 Crenatula modiolaris J. B. Lamarck, 1819
